--- a/_00_Jalons/_03_SQL/dictionnaire.xlsx
+++ b/_00_Jalons/_03_SQL/dictionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSC\ABC_2409_JDB\_00_Jalons\_03_SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C6BC64-240A-4E15-9A1C-04F8AD64DAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CF5462-A86D-44D4-97EA-2EA28D05B8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{4C629D19-ABC8-4EB0-838A-525F448AB214}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>agence de voyage</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>CLE ETRANGERE (vol(id)) , NON NULL</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>INT(3)</t>
   </si>
 </sst>
 </file>
@@ -341,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -349,13 +355,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -375,6 +381,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,14 +409,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F3BC75-DA2C-4E06-9BC1-026CC52C9206}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,15 +763,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -773,7 +785,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -785,7 +797,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -797,264 +809,276 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="5" t="s">
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="9" t="s">
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="5" t="s">
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="9" t="s">
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="D18" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="5" t="s">
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="3" t="s">
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="5" t="s">
+      <c r="D24" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="3" t="s">
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="20"/>
-      <c r="B26" s="7" t="s">
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
+      <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A2:A7"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
